--- a/Project Outputs for SCOM_2_IN_1_JLC_STACKUP_PROD/BOM/Sensor/Bill of Materials-SCOM_2_IN_1_JLC_STACKUP_PROD(Sensor).xlsx
+++ b/Project Outputs for SCOM_2_IN_1_JLC_STACKUP_PROD/BOM/Sensor/Bill of Materials-SCOM_2_IN_1_JLC_STACKUP_PROD(Sensor).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satyam.DESKTOP-S570OAU\AppData\Local\Temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0865B2-AC62-425F-BBEE-01104E4B3AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B6C9891-D8E8-4AD9-B779-243C84A3202C}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SCOM_2_IN_1_J" sheetId="1" r:id="rId1"/>
@@ -18,28 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-SCOM_2_IN_1_J'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>Designator</t>
   </si>
@@ -104,6 +82,9 @@
     <t>C21</t>
   </si>
   <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
     <t>CAPC1608X10N</t>
   </si>
   <si>
@@ -111,24 +92,6 @@
   </si>
   <si>
     <t>CL21A226MAYNNNE</t>
-  </si>
-  <si>
-    <t>CS0</t>
-  </si>
-  <si>
-    <t>XY2500F-BV-5.08-3P</t>
-  </si>
-  <si>
-    <t>CS1</t>
-  </si>
-  <si>
-    <t>XY2500F-BV-5.08-4P</t>
-  </si>
-  <si>
-    <t>CS2</t>
-  </si>
-  <si>
-    <t>PZ254R-11-07P</t>
   </si>
   <si>
     <t>D1, D2, D3, D4</t>
@@ -419,12 +382,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -486,9 +449,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -504,44 +464,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -569,31 +529,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -621,23 +564,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -649,170 +575,176 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA080BF-592E-4149-861B-0E16ACAE7B78}">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -941,20 +873,22 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -962,273 +896,279 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>78</v>
@@ -1236,13 +1176,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>78</v>
@@ -1250,258 +1190,216 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B43" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Project Outputs for SCOM_2_IN_1_JLC_STACKUP_PROD/BOM/Sensor/Bill of Materials-SCOM_2_IN_1_JLC_STACKUP_PROD(Sensor).xlsx
+++ b/Project Outputs for SCOM_2_IN_1_JLC_STACKUP_PROD/BOM/Sensor/Bill of Materials-SCOM_2_IN_1_JLC_STACKUP_PROD(Sensor).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14895"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SCOM_2_IN_1_J" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
   <si>
     <t>Designator</t>
   </si>
@@ -79,21 +79,21 @@
     <t>CC0805JRNPO9BN102</t>
   </si>
   <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>CAPC1608X10N</t>
-  </si>
-  <si>
     <t>C50, C51</t>
   </si>
   <si>
     <t>CL21A226MAYNNNE</t>
   </si>
   <si>
+    <t>XY2500F-BV-5.08-3P</t>
+  </si>
+  <si>
+    <t>XY2500F-BV-5.08-4P</t>
+  </si>
+  <si>
+    <t>PZ254R-11-07P</t>
+  </si>
+  <si>
     <t>D1, D2, D3, D4</t>
   </si>
   <si>
@@ -182,6 +182,24 @@
   </si>
   <si>
     <t>Jumper Cap</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>SCTRM_5P08_3P</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>SCTRM_5P08_4P</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>PH_M_2P54_7P_RA</t>
   </si>
   <si>
     <t>L1</t>
@@ -740,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,248 +889,248 @@
         <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>70</v>
@@ -1123,7 +1141,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>72</v>
@@ -1137,209 +1155,209 @@
         <v>74</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,7 +1379,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>112</v>
@@ -1396,6 +1414,34 @@
       </c>
       <c r="D46" s="2" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
